--- a/src/test/java/resources/Capitals.xlsx
+++ b/src/test/java/resources/Capitals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahka1\IdeaProjects\B151MavenJUnit\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583DC88B-631E-49E3-BA0C-840DFDC97E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -85,12 +86,31 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>asdd</t>
+  </si>
+  <si>
+    <t>ertdydd</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>712816</t>
+  </si>
+  <si>
+    <t>2161000</t>
+  </si>
+  <si>
+    <t>8982000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -131,9 +151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,11 +368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -360,12 +380,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -375,6 +398,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -383,6 +409,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -391,6 +420,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -399,6 +431,9 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="n" s="0">
+        <v>5663000.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -446,6 +481,14 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
